--- a/LiveRe/data/talents.xlsx
+++ b/LiveRe/data/talents.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC5D45B-00AC-4951-8246-510F02069F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77DA7A2-06C4-413C-8A46-63BA84CCF001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="talents" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="509">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1359,489 +1359,627 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>抖M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境-2，快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦痛侍僧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海的女儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值-2，初始可用属性点+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性&gt;5时，所有属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(SPR&gt;5)&amp;(MNY&gt;5)&amp;(CHR&gt;5)&amp;(STR&gt;5)&amp;(INT&gt;5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性&gt;5时，所有属性+2</t>
+  </si>
+  <si>
+    <t>进阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超进化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准扶贫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你20、30岁时无事发生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你10岁时无事发生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[10]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过你的40~50岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康饮食</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不吃洋快餐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互斥天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclusive[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不想罢了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会上清华大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑衅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你喜欢没事找事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你和家人不会发生车祸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你喜欢旅游</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你比较自恋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水仙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺一门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可能听到一些绝密消息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异界来客</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三胎人生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1113</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你尽可能生三胎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过你的60~90岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加奥赛的几率提高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宙斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考公务员时一定能考上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1119</t>
+  </si>
+  <si>
+    <t>1120</t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>1123</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>为人民服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入狱会减刑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现良好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运气稍微提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小吉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天秤座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>据说做事很公平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万里挑一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你很攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你有强迫症</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把握不住</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赶着投胎，不要初始属性了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1084</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1085</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1086</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>急了急了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不离不弃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会离婚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>身高不矮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>足量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易胖体质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值更容易降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>种族主义者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄帝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒律</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左撇子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>习惯使用左手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>克苏鲁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;▓▓▓◆▓▓▓￥#▓@■.◆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你还拥有其他人格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不连续存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占位符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少一个可选天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时候死亡率降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许有护佑作用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1131</t>
+  </si>
+  <si>
+    <t>魔法棒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道有什么用……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返老还童</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能会回到年轻的时候</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时光倒流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许时间会倒流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转世重修</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡劫失败重生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[40]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40岁时家境+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁时智力+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[18]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24岁时颜值+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[24]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质&lt;0时其他属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐观</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死后可能灵魂离体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮回之外</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪婪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境+10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(AGE?[100])&amp;(TMS&gt;99)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百岁百世丸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机属性+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机属性+8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变成随机蓝色天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变成随机紫色天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变成随机橙色天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>培养爱好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:RDM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换成某稀有度的天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换成某天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>replacement:grade[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>replacement:talent[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>意外之喜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>觉醒</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>抖M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境-2，快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦痛侍僧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海的女儿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值-2，初始可用属性点+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性&gt;5时，所有属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(SPR&gt;5)&amp;(MNY&gt;5)&amp;(CHR&gt;5)&amp;(STR&gt;5)&amp;(INT&gt;5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性&gt;5时，所有属性+2</t>
-  </si>
-  <si>
-    <t>进阶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超进化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>精准扶贫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你20、30岁时无事发生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你10岁时无事发生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[10]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[20,30]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳过你的40~50岁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[40,41,42,43,44,45,46,47,48,49,50]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康饮食</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不吃洋快餐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>互斥天赋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exclusive[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不想罢了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不会上清华大学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑衅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你喜欢没事找事</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你和家人不会发生车祸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你喜欢旅游</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你比较自恋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>旅行者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水仙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺一门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你可能听到一些绝密消息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>异界来客</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1024</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1013</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1013</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三胎人生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1113</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1026</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你尽可能生三胎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳过你的60~90岁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参加奥赛的几率提高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宙斯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>考公务员时一定能考上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1119</t>
-  </si>
-  <si>
-    <t>1120</t>
-  </si>
-  <si>
-    <t>1121</t>
-  </si>
-  <si>
-    <t>1122</t>
-  </si>
-  <si>
-    <t>1123</t>
-  </si>
-  <si>
-    <t>1124</t>
-  </si>
-  <si>
-    <t>1125</t>
-  </si>
-  <si>
-    <t>1126</t>
-  </si>
-  <si>
-    <t>1127</t>
-  </si>
-  <si>
-    <t>1128</t>
-  </si>
-  <si>
-    <t>为人民服务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>入狱会减刑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表现良好</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>运气稍微提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小吉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天秤座</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>据说做事很公平</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>万里挑一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你很攻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你有强迫症</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>把握不住</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赶着投胎，不要初始属性了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1084</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1085</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1086</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1122</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>急了急了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不离不弃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不会离婚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1129</t>
-  </si>
-  <si>
-    <t>1130</t>
-  </si>
-  <si>
-    <t>身高不矮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>足量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>易胖体质</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值更容易降低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>种族主义者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄帝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戒律</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>左撇子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>习惯使用左手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>克苏鲁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;▓▓▓◆▓▓▓￥#▓@■.◆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你还拥有其他人格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不连续存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>占位符</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少一个可选天赋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小时候死亡率降低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>或许有护佑作用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1131</t>
-  </si>
-  <si>
-    <t>魔法棒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不知道有什么用……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返老还童</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能会回到年轻的时候</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时光倒流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>或许时间会倒流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转世重修</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>渡劫失败重生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[40]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40岁时家境+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18岁时智力+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[18]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24岁时颜值+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[24]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质&lt;0时其他属性+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐观</t>
+    <t>蓝色转盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色转盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色转盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴间大会员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能开出好天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴间福袋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>某条件下所有属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮盘赌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/6几率变橙色天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[60]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[20]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1141*0.2</t>
+  </si>
+  <si>
+    <t>1135*0.2</t>
+  </si>
+  <si>
+    <t>1114*0.2</t>
+  </si>
+  <si>
+    <t>1023*0.2</t>
+  </si>
+  <si>
+    <t>1048*0.2</t>
+  </si>
+  <si>
+    <t>1033*5</t>
+  </si>
+  <si>
+    <t>艰苦奋斗</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2246,13 +2384,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q136"/>
+  <dimension ref="A1:AK148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AG140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F131" sqref="F131"/>
+      <selection pane="bottomRight" activeCell="AI146" sqref="AI146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2263,15 +2401,16 @@
     <col min="4" max="4" width="20.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
-    <col min="7" max="11" width="13.5546875" style="1" customWidth="1"/>
-    <col min="12" max="14" width="18.88671875" style="6" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="25.44140625" style="1"/>
+    <col min="7" max="12" width="13.5546875" style="1" customWidth="1"/>
+    <col min="13" max="29" width="23.33203125" style="1" customWidth="1"/>
+    <col min="30" max="32" width="18.88671875" style="6" customWidth="1"/>
+    <col min="33" max="33" width="19.33203125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="21.88671875" style="1" customWidth="1"/>
+    <col min="35" max="35" width="19.109375" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="25.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>219</v>
       </c>
@@ -2305,26 +2444,86 @@
       <c r="K1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2358,26 +2557,86 @@
       <c r="K2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2385,13 +2644,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2399,13 +2658,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2418,20 +2677,17 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="AD5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE5" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2444,17 +2700,17 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD6" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AE6" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="AF6" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2468,12 +2724,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>158</v>
@@ -2485,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2502,7 +2758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2519,7 +2775,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -2536,7 +2792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -2549,17 +2805,20 @@
       <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE12" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="AF12" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -2573,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -2586,17 +2845,17 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD14" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE14" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF14" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -2609,17 +2868,17 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="AD15" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE15" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="M15" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF15" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -2633,19 +2892,19 @@
         <v>2</v>
       </c>
       <c r="H16" s="1">
-        <v>3</v>
-      </c>
-      <c r="L16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE16" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="M16" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF16" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -2659,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2673,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -2687,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -2716,7 +2975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -2733,7 +2992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -2750,7 +3009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -2770,7 +3029,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -2784,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -2813,7 +3072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2826,17 +3085,17 @@
       <c r="E26" s="1">
         <v>2</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="M26" s="6" t="s">
+      <c r="AD26" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AE26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N26" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF26" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -2849,20 +3108,20 @@
       <c r="E27" s="1">
         <v>2</v>
       </c>
-      <c r="L27" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="N27" s="6" t="s">
+      <c r="AD27" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="AF27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O27" s="1">
+      <c r="AG27" s="1">
         <v>1113</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -2875,11 +3134,11 @@
       <c r="E28" s="1">
         <v>0</v>
       </c>
-      <c r="L28" s="6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD28" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -2892,11 +3151,11 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="L29" s="6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD29" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -2910,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -2924,7 +3183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -2938,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -2955,7 +3214,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -2984,7 +3243,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
@@ -3001,7 +3260,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -3018,7 +3277,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -3035,7 +3294,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -3052,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -3066,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -3080,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
@@ -3094,12 +3353,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>202</v>
@@ -3108,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
@@ -3121,11 +3380,11 @@
       <c r="E43" s="1">
         <v>1</v>
       </c>
-      <c r="L43" s="6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD43" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -3139,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
@@ -3147,13 +3406,13 @@
         <v>207</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -3167,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
@@ -3181,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -3194,8 +3453,8 @@
       <c r="E48" s="1">
         <v>1</v>
       </c>
-      <c r="L48" s="6" t="s">
-        <v>397</v>
+      <c r="AD48" s="6" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3437,10 +3696,10 @@
         <v>247</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -3457,10 +3716,10 @@
         <v>248</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -3477,10 +3736,10 @@
         <v>249</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -3562,7 +3821,7 @@
         <v>78</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>261</v>
@@ -3799,7 +4058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
@@ -3819,7 +4078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
@@ -3839,7 +4098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>93</v>
       </c>
@@ -3868,7 +4127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>94</v>
       </c>
@@ -3897,7 +4156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>95</v>
       </c>
@@ -3926,7 +4185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
@@ -3945,11 +4204,11 @@
       <c r="G86" s="1">
         <v>2</v>
       </c>
-      <c r="L86" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD86" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>97</v>
       </c>
@@ -3968,11 +4227,11 @@
       <c r="G87" s="1">
         <v>5</v>
       </c>
-      <c r="L87" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD87" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
@@ -3988,11 +4247,11 @@
       <c r="F88" s="1">
         <v>-10</v>
       </c>
-      <c r="L88" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD88" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
@@ -4012,7 +4271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>100</v>
       </c>
@@ -4032,7 +4291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>101</v>
       </c>
@@ -4052,7 +4311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>102</v>
       </c>
@@ -4081,7 +4340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>103</v>
       </c>
@@ -4089,7 +4348,7 @@
         <v>330</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>328</v>
@@ -4110,7 +4369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>104</v>
       </c>
@@ -4139,7 +4398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>105</v>
       </c>
@@ -4159,7 +4418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>106</v>
       </c>
@@ -4239,7 +4498,7 @@
         <v>109</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>344</v>
@@ -4268,7 +4527,7 @@
         <v>110</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>348</v>
+        <v>508</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>346</v>
@@ -4297,10 +4556,10 @@
         <v>111</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="E101" s="1">
         <v>0</v>
@@ -4317,10 +4576,10 @@
         <v>112</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -4337,13 +4596,13 @@
         <v>113</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D103" s="5" t="s">
         <v>354</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>355</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
@@ -4369,13 +4628,13 @@
         <v>114</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -4401,13 +4660,13 @@
         <v>115</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="E105" s="1">
         <v>0</v>
@@ -4418,13 +4677,13 @@
         <v>116</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>368</v>
+        <v>461</v>
       </c>
       <c r="E106" s="1">
         <v>2</v>
@@ -4435,13 +4694,13 @@
         <v>117</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>366</v>
+        <v>501</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -4452,10 +4711,10 @@
         <v>118</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E108" s="1">
         <v>0</v>
@@ -4466,10 +4725,10 @@
         <v>119</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E109" s="1">
         <v>0</v>
@@ -4480,10 +4739,10 @@
         <v>120</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E110" s="1">
         <v>0</v>
@@ -4494,10 +4753,10 @@
         <v>121</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E111" s="1">
         <v>0</v>
@@ -4508,199 +4767,199 @@
         <v>122</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E112" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E113" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD115" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE115" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E115" s="1">
-        <v>1</v>
-      </c>
-      <c r="L115" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="M115" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="N115" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="O115" s="1">
+      <c r="AF115" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AG115" s="1">
         <v>1027</v>
       </c>
-      <c r="P115" s="1">
+      <c r="AH115" s="1">
         <v>1041</v>
       </c>
-      <c r="Q115" s="1">
+      <c r="AI115" s="1">
         <v>1046</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>404</v>
+        <v>500</v>
       </c>
       <c r="E116" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E118" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E119" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E120" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B121" s="1" t="s">
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="E121" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B122" s="1" t="s">
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E122" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E123" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
@@ -4708,182 +4967,506 @@
       <c r="F124" s="1">
         <v>-20</v>
       </c>
-      <c r="L124" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="M124" s="6" t="s">
+      <c r="AD124" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="AE124" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="AF124" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="125" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="N124" s="6" t="s">
+      <c r="C125" s="1" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="E125" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="B129" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E126" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E127" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B128" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E128" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B129" s="1" t="s">
+      <c r="C130" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E130" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="E129" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B130" s="1" t="s">
+      <c r="E131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="E130" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E131" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B132" s="1" t="s">
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="E132" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>457</v>
-      </c>
       <c r="C133" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E133" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>1132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E134" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>1133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E135" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>1134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E136" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>1135</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E137" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>1136</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
+      <c r="K138" s="1">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>1137</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1</v>
+      </c>
+      <c r="G139" s="1">
+        <v>2</v>
+      </c>
+      <c r="H139" s="1">
+        <v>2</v>
+      </c>
+      <c r="I139" s="1">
+        <v>2</v>
+      </c>
+      <c r="J139" s="1">
+        <v>2</v>
+      </c>
+      <c r="K139" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>1138</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E140" s="1">
+        <v>0</v>
+      </c>
+      <c r="L140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>1139</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E141" s="1">
+        <v>1</v>
+      </c>
+      <c r="L141" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>1140</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E142" s="1">
+        <v>2</v>
+      </c>
+      <c r="L142" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>1141</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E143" s="1">
+        <v>3</v>
+      </c>
+      <c r="L143" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>1142</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E144" s="1">
+        <v>0</v>
+      </c>
+      <c r="M144" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD144" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE144" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF144" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG144" s="1">
+        <v>1110</v>
+      </c>
+      <c r="AH144" s="1">
+        <v>1003</v>
+      </c>
+      <c r="AI144" s="1">
+        <v>1004</v>
+      </c>
+      <c r="AJ144" s="1">
+        <v>1124</v>
+      </c>
+      <c r="AK144" s="1">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="145" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>1143</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E145" s="1">
+        <v>1</v>
+      </c>
+      <c r="M145" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD145" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE145" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF145" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG145" s="1">
+        <v>1110</v>
+      </c>
+      <c r="AH145" s="1">
+        <v>1003</v>
+      </c>
+      <c r="AI145" s="1">
+        <v>1004</v>
+      </c>
+      <c r="AJ145" s="1">
+        <v>1124</v>
+      </c>
+      <c r="AK145" s="1">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="146" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>1144</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E146" s="1">
+        <v>2</v>
+      </c>
+      <c r="M146" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>1145</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1</v>
+      </c>
+      <c r="N147" s="6">
+        <v>1138</v>
+      </c>
+      <c r="O147" s="6">
+        <v>1133</v>
+      </c>
+      <c r="P147" s="6">
+        <v>1125</v>
+      </c>
+      <c r="Q147" s="6">
+        <v>1128</v>
+      </c>
+      <c r="R147" s="6">
+        <v>1129</v>
+      </c>
+      <c r="S147" s="6">
+        <v>1131</v>
+      </c>
+      <c r="T147" s="6">
+        <v>1111</v>
+      </c>
+      <c r="U147" s="6">
+        <v>1108</v>
+      </c>
+      <c r="V147" s="6">
+        <v>1071</v>
+      </c>
+      <c r="W147" s="6">
+        <v>1072</v>
+      </c>
+      <c r="X147" s="6">
+        <v>1044</v>
+      </c>
+      <c r="Y147" s="6">
+        <v>1039</v>
+      </c>
+      <c r="Z147" s="6">
+        <v>1040</v>
+      </c>
+      <c r="AA147" s="6">
+        <v>1033</v>
+      </c>
+      <c r="AB147" s="6">
+        <v>1031</v>
+      </c>
+      <c r="AC147" s="6">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>1146</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="O148" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q148" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="R148" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="S148" s="1" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>
